--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nouns" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7077" uniqueCount="5652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7081" uniqueCount="5657">
   <si>
     <t>German Singular</t>
   </si>
@@ -10900,16 +10900,16 @@
     <t>нырять</t>
   </si>
   <si>
-    <t>beginnen</t>
-  </si>
-  <si>
-    <t>бэгинэн</t>
-  </si>
-  <si>
-    <t>to begin</t>
-  </si>
-  <si>
-    <t>начинаться</t>
+    <t>beginnen|anfangen</t>
+  </si>
+  <si>
+    <t>бэгинэн|анфа́н'эн</t>
+  </si>
+  <si>
+    <t>to begin/to start</t>
+  </si>
+  <si>
+    <t>начинать(ся)</t>
   </si>
   <si>
     <t>fehlen</t>
@@ -11887,16 +11887,16 @@
     <t>собирать</t>
   </si>
   <si>
-    <t>verkaufen</t>
-  </si>
-  <si>
-    <t>фака́уфн</t>
-  </si>
-  <si>
-    <t>to sell</t>
-  </si>
-  <si>
-    <t>продавать</t>
+    <t>verkaufen|handeln</t>
+  </si>
+  <si>
+    <t>фака́уфн|ха́ндльн</t>
+  </si>
+  <si>
+    <t>to sell/to deal/to bargain</t>
+  </si>
+  <si>
+    <t>продавать/торговать</t>
   </si>
   <si>
     <t>springen</t>
@@ -12007,18 +12007,6 @@
     <t>нажимать</t>
   </si>
   <si>
-    <t>anfangen</t>
-  </si>
-  <si>
-    <t>анфа́н'эн</t>
-  </si>
-  <si>
-    <t>to begin/to start</t>
-  </si>
-  <si>
-    <t>начинать</t>
-  </si>
-  <si>
     <t>agieren</t>
   </si>
   <si>
@@ -12031,18 +12019,6 @@
     <t>действовать/поступать</t>
   </si>
   <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>ха́ндльн</t>
-  </si>
-  <si>
-    <t>to deal/to bargain</t>
-  </si>
-  <si>
-    <t>торговать</t>
-  </si>
-  <si>
     <t>erfinden</t>
   </si>
   <si>
@@ -12067,7 +12043,7 @@
     <t>смеяться</t>
   </si>
   <si>
-    <t>umarme</t>
+    <t>umarmen</t>
   </si>
   <si>
     <t>ум)а́мэн</t>
@@ -14651,6 +14627,9 @@
     <t>inside/indoors</t>
   </si>
   <si>
+    <t>внутри</t>
+  </si>
+  <si>
     <t>draußen</t>
   </si>
   <si>
@@ -14660,6 +14639,9 @@
     <t>outside/outdoors</t>
   </si>
   <si>
+    <t>снаружи</t>
+  </si>
+  <si>
     <t>hinter</t>
   </si>
   <si>
@@ -14669,6 +14651,9 @@
     <t>behind</t>
   </si>
   <si>
+    <t>за(предлог)</t>
+  </si>
+  <si>
     <t>werden ... gleich</t>
   </si>
   <si>
@@ -14678,6 +14663,9 @@
     <t>just about to ...</t>
   </si>
   <si>
+    <t>вот вот...</t>
+  </si>
+  <si>
     <t>gegenseitig</t>
   </si>
   <si>
@@ -14687,9 +14675,18 @@
     <t>each other</t>
   </si>
   <si>
+    <t>друг друга</t>
+  </si>
+  <si>
     <t>currently</t>
   </si>
   <si>
+    <t>моментально/в настоящее время</t>
+  </si>
+  <si>
+    <t>пунктуальный/во время</t>
+  </si>
+  <si>
     <t>putzen die Zähne</t>
   </si>
   <si>
@@ -14699,6 +14696,9 @@
     <t>brush teeth</t>
   </si>
   <si>
+    <t>чистить зубы</t>
+  </si>
+  <si>
     <t>ins Bett gehen</t>
   </si>
   <si>
@@ -14708,6 +14708,9 @@
     <t>go to bed</t>
   </si>
   <si>
+    <t>ложиться спать</t>
+  </si>
+  <si>
     <t>circa</t>
   </si>
   <si>
@@ -14717,6 +14720,9 @@
     <t>approximately</t>
   </si>
   <si>
+    <t>приблизительно</t>
+  </si>
+  <si>
     <t>überhaupt</t>
   </si>
   <si>
@@ -14726,13 +14732,19 @@
     <t>at all</t>
   </si>
   <si>
+    <t>вообще</t>
+  </si>
+  <si>
     <t>außerdem</t>
   </si>
   <si>
     <t>а́усадем</t>
   </si>
   <si>
-    <t>aside from that/moreover</t>
+    <t>aside from that/moreover/additionally</t>
+  </si>
+  <si>
+    <t>к тому же/кроме того</t>
   </si>
   <si>
     <t>Infinitive/Present 1st, 3rd person plural</t>
@@ -16173,6 +16185,9 @@
   </si>
   <si>
     <t>рождаться</t>
+  </si>
+  <si>
+    <t>beginnen</t>
   </si>
   <si>
     <t>беги́нэн</t>
@@ -17033,12 +17048,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -17107,6 +17122,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -17115,11 +17152,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17146,19 +17214,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17170,29 +17236,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -17209,35 +17252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17285,7 +17300,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17297,91 +17420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17399,7 +17444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17411,49 +17468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17512,54 +17527,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -17592,8 +17559,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17608,10 +17614,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17620,175 +17644,166 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="17">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="10" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="17" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="26" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="26"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="17" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="26" applyBorder="1" applyAlignment="1">
@@ -17803,102 +17818,99 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="26" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="32">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="51" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="43" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="51">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="43">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="32" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Regular" xfId="7"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Note" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Title" xfId="17" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
     <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Regular" xfId="49"/>
-    <cellStyle name="New_New" xfId="50"/>
-    <cellStyle name="New" xfId="51"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="New_New" xfId="32"/>
+    <cellStyle name="Accent1" xfId="33" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="35" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="36" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="37" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="39" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="40" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
+    <cellStyle name="New" xfId="43"/>
+    <cellStyle name="20% - Accent4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="45" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="48" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="51" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -18198,7 +18210,7 @@
   </sheetPr>
   <dimension ref="A1:H493"/>
   <sheetViews>
-    <sheetView topLeftCell="A489" workbookViewId="0">
+    <sheetView topLeftCell="A492" workbookViewId="0">
       <selection activeCell="F494" sqref="F494"/>
     </sheetView>
   </sheetViews>
@@ -23184,16 +23196,16 @@
       <c r="C192" s="15" t="s">
         <v>1107</v>
       </c>
-      <c r="D192" s="26" t="s">
+      <c r="D192" s="25" t="s">
         <v>1108</v>
       </c>
-      <c r="E192" s="26" t="s">
+      <c r="E192" s="25" t="s">
         <v>1109</v>
       </c>
       <c r="F192" s="18" t="s">
         <v>1110</v>
       </c>
-      <c r="G192" s="26" t="s">
+      <c r="G192" s="25" t="s">
         <v>1109</v>
       </c>
       <c r="H192" s="18" t="s">
@@ -27673,7 +27685,7 @@
       </c>
     </row>
     <row r="365" customHeight="1" spans="1:8">
-      <c r="A365" s="27" t="s">
+      <c r="A365" s="26" t="s">
         <v>2142</v>
       </c>
       <c r="B365" s="15" t="s">
@@ -31031,7 +31043,7 @@
   </sheetPr>
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
@@ -32773,10 +32785,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.1428571428571" defaultRowHeight="90" customHeight="1" outlineLevelCol="4"/>
@@ -35014,10 +35026,10 @@
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:4">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="23" t="s">
         <v>3998</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="23" t="s">
         <v>3999</v>
       </c>
       <c r="C160" s="15" t="s">
@@ -35042,10 +35054,10 @@
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:4">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="15" t="s">
         <v>4006</v>
       </c>
-      <c r="B162" s="25" t="s">
+      <c r="B162" s="15" t="s">
         <v>4007</v>
       </c>
       <c r="C162" s="15" t="s">
@@ -35053,34 +35065,6 @@
       </c>
       <c r="D162" s="15" t="s">
         <v>4009</v>
-      </c>
-    </row>
-    <row r="163" customHeight="1" spans="1:4">
-      <c r="A163" s="15" t="s">
-        <v>4010</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>4011</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>4012</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>4013</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="1:4">
-      <c r="A164" s="15" t="s">
-        <v>4014</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>4015</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>4016</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>4017</v>
       </c>
     </row>
   </sheetData>
@@ -35095,8 +35079,8 @@
   <sheetPr/>
   <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.1428571428571" defaultRowHeight="90" customHeight="1" outlineLevelCol="3"/>
@@ -35106,7 +35090,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>4018</v>
+        <v>4010</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2891</v>
@@ -35120,881 +35104,881 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>4019</v>
+        <v>4011</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>4020</v>
+        <v>4012</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>4021</v>
+        <v>4013</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>4022</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>4023</v>
+        <v>4015</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>4024</v>
+        <v>4016</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>4025</v>
+        <v>4017</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>4026</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="15" t="s">
-        <v>4027</v>
+        <v>4019</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>4028</v>
+        <v>4020</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>4029</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="15" t="s">
-        <v>4030</v>
+        <v>4022</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>4031</v>
+        <v>4023</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>4032</v>
+        <v>4024</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>4033</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>4034</v>
+        <v>4026</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>4035</v>
+        <v>4027</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>4036</v>
+        <v>4028</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>4037</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>4038</v>
+        <v>4030</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>4039</v>
+        <v>4031</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>4040</v>
+        <v>4032</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>4041</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>4042</v>
+        <v>4034</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>4043</v>
+        <v>4035</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>4044</v>
+        <v>4036</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>4045</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="15" t="s">
-        <v>4046</v>
+        <v>4038</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>4047</v>
+        <v>4039</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>4048</v>
+        <v>4040</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>4049</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>4050</v>
+        <v>4042</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>4051</v>
+        <v>4043</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>4052</v>
+        <v>4044</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>4053</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="15" t="s">
-        <v>4054</v>
+        <v>4046</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>4055</v>
+        <v>4047</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>4056</v>
+        <v>4048</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>4057</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>4058</v>
+        <v>4050</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>4059</v>
+        <v>4051</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>4060</v>
+        <v>4052</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>4061</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="15" t="s">
-        <v>4062</v>
+        <v>4054</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>4063</v>
+        <v>4055</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>4064</v>
+        <v>4056</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>4065</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="15" t="s">
-        <v>4066</v>
+        <v>4058</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>4067</v>
+        <v>4059</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>4068</v>
+        <v>4060</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>4069</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>4070</v>
+        <v>4062</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>4071</v>
+        <v>4063</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>4072</v>
+        <v>4064</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>4073</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="15" t="s">
-        <v>4074</v>
+        <v>4066</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>4075</v>
+        <v>4067</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>4076</v>
+        <v>4068</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>4077</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="15" t="s">
-        <v>4078</v>
+        <v>4070</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>4079</v>
+        <v>4071</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>4080</v>
+        <v>4072</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>4081</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>4082</v>
+        <v>4074</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>4083</v>
+        <v>4075</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>4084</v>
+        <v>4076</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>4085</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="15" t="s">
-        <v>4086</v>
+        <v>4078</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>4087</v>
+        <v>4079</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>4088</v>
+        <v>4080</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>4089</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="15" t="s">
-        <v>4090</v>
+        <v>4082</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>4091</v>
+        <v>4083</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>4092</v>
+        <v>4084</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>4093</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="15" t="s">
-        <v>4094</v>
+        <v>4086</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>4095</v>
+        <v>4087</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>4096</v>
+        <v>4088</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>4097</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="15" t="s">
-        <v>4098</v>
+        <v>4090</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>4099</v>
+        <v>4091</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>4100</v>
+        <v>4092</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>4101</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="15" t="s">
-        <v>4102</v>
+        <v>4094</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>4103</v>
+        <v>4095</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>4104</v>
+        <v>4096</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>4105</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="15" t="s">
-        <v>4106</v>
+        <v>4098</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>4107</v>
+        <v>4099</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>4108</v>
+        <v>4100</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>4109</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="15" t="s">
-        <v>4110</v>
+        <v>4102</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>4111</v>
+        <v>4103</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>4112</v>
+        <v>4104</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>4113</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="15" t="s">
-        <v>4114</v>
+        <v>4106</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>4115</v>
+        <v>4107</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>4116</v>
+        <v>4108</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>4117</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="15" t="s">
-        <v>4118</v>
+        <v>4110</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>4119</v>
+        <v>4111</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>4120</v>
+        <v>4112</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>4121</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="15" t="s">
-        <v>4122</v>
+        <v>4114</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>4123</v>
+        <v>4115</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>4124</v>
+        <v>4116</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>4125</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="15" t="s">
-        <v>4126</v>
+        <v>4118</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>4127</v>
+        <v>4119</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>4128</v>
+        <v>4120</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>4129</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="15" t="s">
-        <v>4130</v>
+        <v>4122</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>4131</v>
+        <v>4123</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>4132</v>
+        <v>4124</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>4133</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="15" t="s">
-        <v>4134</v>
+        <v>4126</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>4135</v>
+        <v>4127</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>4136</v>
+        <v>4128</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>4137</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="15" t="s">
-        <v>4138</v>
+        <v>4130</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>4139</v>
+        <v>4131</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>2892</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>4140</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="15" t="s">
-        <v>4141</v>
+        <v>4133</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>4142</v>
+        <v>4134</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>4143</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>4144</v>
+        <v>4136</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>4145</v>
+        <v>4137</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>4146</v>
+        <v>4138</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>4147</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="15" t="s">
-        <v>4148</v>
+        <v>4140</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>4149</v>
+        <v>4141</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>4150</v>
+        <v>4142</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>4151</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="15" t="s">
-        <v>4152</v>
+        <v>4144</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>4153</v>
+        <v>4145</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>4154</v>
+        <v>4146</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>4155</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="15" t="s">
-        <v>4156</v>
+        <v>4148</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>4157</v>
+        <v>4149</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>4158</v>
+        <v>4150</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>4159</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="15" t="s">
-        <v>4160</v>
+        <v>4152</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>4161</v>
+        <v>4153</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>4162</v>
+        <v>4154</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>4163</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="15" t="s">
-        <v>4164</v>
+        <v>4156</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>4165</v>
+        <v>4157</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>4166</v>
+        <v>4158</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>4167</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="15" t="s">
-        <v>4168</v>
+        <v>4160</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>4169</v>
+        <v>4161</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>4170</v>
+        <v>4162</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>4171</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="15" t="s">
-        <v>4172</v>
+        <v>4164</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>4173</v>
+        <v>4165</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>4174</v>
+        <v>4166</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>4175</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="15" t="s">
-        <v>4176</v>
+        <v>4168</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>4177</v>
+        <v>4169</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>4176</v>
+        <v>4168</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>4178</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="15" t="s">
-        <v>4179</v>
+        <v>4171</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>4180</v>
+        <v>4172</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>4179</v>
+        <v>4171</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>4181</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:4">
       <c r="A44" s="15" t="s">
-        <v>4182</v>
+        <v>4174</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>4183</v>
+        <v>4175</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>4184</v>
+        <v>4176</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>4185</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" s="15" t="s">
-        <v>4186</v>
+        <v>4178</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>4187</v>
+        <v>4179</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>4188</v>
+        <v>4180</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>4189</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" s="15" t="s">
-        <v>4190</v>
+        <v>4182</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>4191</v>
+        <v>4183</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>4192</v>
+        <v>4184</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>4193</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" s="15" t="s">
-        <v>4194</v>
+        <v>4186</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>4195</v>
+        <v>4187</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>4196</v>
+        <v>4188</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>4197</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" s="15" t="s">
-        <v>4198</v>
+        <v>4190</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>4199</v>
+        <v>4191</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>4200</v>
+        <v>4192</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>4201</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" s="15" t="s">
-        <v>4202</v>
+        <v>4194</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>4203</v>
+        <v>4195</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>4204</v>
+        <v>4196</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>4205</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" s="15" t="s">
-        <v>4206</v>
+        <v>4198</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>4207</v>
+        <v>4199</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>4208</v>
+        <v>4200</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>4209</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" s="15" t="s">
-        <v>4210</v>
+        <v>4202</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>4211</v>
+        <v>4203</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>4212</v>
+        <v>4204</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>4213</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:4">
       <c r="A52" s="15" t="s">
-        <v>4150</v>
+        <v>4142</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>4214</v>
+        <v>4206</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>4215</v>
+        <v>4207</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>4216</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:4">
       <c r="A53" s="15" t="s">
-        <v>4217</v>
+        <v>4209</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>4218</v>
+        <v>4210</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>4217</v>
+        <v>4209</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>4219</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:4">
       <c r="A54" s="15" t="s">
-        <v>4220</v>
+        <v>4212</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>4221</v>
+        <v>4213</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>4222</v>
+        <v>4214</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>4223</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:4">
       <c r="A55" s="15" t="s">
-        <v>4224</v>
+        <v>4216</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>4225</v>
+        <v>4217</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>4226</v>
+        <v>4218</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>4227</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:4">
       <c r="A56" s="15" t="s">
-        <v>4228</v>
+        <v>4220</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>4229</v>
+        <v>4221</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>4230</v>
+        <v>4222</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>4231</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" s="15" t="s">
-        <v>4232</v>
+        <v>4224</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>4233</v>
+        <v>4225</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>4234</v>
+        <v>4226</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>4235</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" s="15" t="s">
-        <v>4236</v>
+        <v>4228</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>4237</v>
+        <v>4229</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>4238</v>
+        <v>4230</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>4239</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:4">
       <c r="A59" s="15" t="s">
-        <v>4240</v>
+        <v>4232</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>4241</v>
+        <v>4233</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>4242</v>
+        <v>4234</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>4243</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:4">
       <c r="A60" s="19" t="s">
-        <v>4244</v>
+        <v>4236</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>4245</v>
+        <v>4237</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>4246</v>
+        <v>4238</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>4247</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:4">
       <c r="A61" s="15" t="s">
-        <v>4248</v>
+        <v>4240</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>4249</v>
+        <v>4241</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>4250</v>
+        <v>4242</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>4251</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:4">
       <c r="A62" s="15" t="s">
-        <v>4252</v>
+        <v>4244</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>4253</v>
+        <v>4245</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>4254</v>
+        <v>4246</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>4255</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:4">
       <c r="A63" s="15" t="s">
-        <v>4256</v>
+        <v>4248</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>4257</v>
+        <v>4249</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>4258</v>
+        <v>4250</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>4259</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:4">
       <c r="A64" s="15" t="s">
-        <v>4260</v>
+        <v>4252</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>4261</v>
+        <v>4253</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>4260</v>
+        <v>4252</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>138</v>
@@ -36002,520 +35986,520 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" s="15" t="s">
-        <v>4262</v>
+        <v>4254</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>4263</v>
+        <v>4255</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>4112</v>
+        <v>4104</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>4264</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" s="15" t="s">
-        <v>4265</v>
+        <v>4257</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>4266</v>
+        <v>4258</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>4267</v>
+        <v>4259</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>4268</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:4">
       <c r="A67" s="15" t="s">
-        <v>4269</v>
+        <v>4261</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>4270</v>
+        <v>4262</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>4271</v>
+        <v>4263</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>4272</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:4">
       <c r="A68" s="15" t="s">
-        <v>4273</v>
+        <v>4265</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>4274</v>
+        <v>4266</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>4275</v>
+        <v>4267</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>4276</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:4">
       <c r="A69" s="15" t="s">
-        <v>4277</v>
+        <v>4269</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>4278</v>
+        <v>4270</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>1791</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>4279</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:4">
       <c r="A70" s="15" t="s">
-        <v>4280</v>
+        <v>4272</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>4281</v>
+        <v>4273</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>4282</v>
+        <v>4274</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>4283</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:4">
       <c r="A71" s="15" t="s">
-        <v>4284</v>
+        <v>4276</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>4285</v>
+        <v>4277</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>4286</v>
+        <v>4278</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>4287</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:4">
       <c r="A72" s="15" t="s">
-        <v>4288</v>
+        <v>4280</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>4289</v>
+        <v>4281</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>4290</v>
+        <v>4282</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>4291</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" s="15" t="s">
-        <v>4292</v>
+        <v>4284</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>4293</v>
+        <v>4285</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>4294</v>
+        <v>4286</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>4295</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="15" t="s">
-        <v>4296</v>
+        <v>4288</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>4297</v>
+        <v>4289</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>4298</v>
+        <v>4290</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>4299</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" s="15" t="s">
-        <v>4300</v>
+        <v>4292</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>4301</v>
+        <v>4293</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>4302</v>
+        <v>4294</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>4303</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" s="15" t="s">
-        <v>4304</v>
+        <v>4296</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>4305</v>
+        <v>4297</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>4306</v>
+        <v>4298</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>4307</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:4">
       <c r="A77" s="15" t="s">
-        <v>4308</v>
+        <v>4300</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>4309</v>
+        <v>4301</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>4310</v>
+        <v>4302</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>4311</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:4">
       <c r="A78" s="15" t="s">
-        <v>4312</v>
+        <v>4304</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>4313</v>
+        <v>4305</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>4314</v>
+        <v>4306</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>4315</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:4">
       <c r="A79" s="17" t="s">
-        <v>4316</v>
+        <v>4308</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>4317</v>
+        <v>4309</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>4318</v>
+        <v>4310</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>4319</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:4">
       <c r="A80" s="15" t="s">
-        <v>4320</v>
+        <v>4312</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>4321</v>
+        <v>4313</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>4322</v>
+        <v>4314</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>4323</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" s="15" t="s">
-        <v>4182</v>
+        <v>4174</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>4183</v>
+        <v>4175</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>4324</v>
+        <v>4316</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>4325</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
       <c r="A82" s="15" t="s">
-        <v>4326</v>
+        <v>4318</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>4327</v>
+        <v>4319</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>4328</v>
+        <v>4320</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>4329</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:4">
       <c r="A83" s="15" t="s">
-        <v>4330</v>
+        <v>4322</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>4331</v>
+        <v>4323</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>4332</v>
+        <v>4324</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>4333</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:4">
       <c r="A84" s="15" t="s">
-        <v>4334</v>
+        <v>4326</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>4335</v>
+        <v>4327</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>4336</v>
+        <v>4328</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>4337</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:4">
       <c r="A85" s="15" t="s">
-        <v>4338</v>
+        <v>4330</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>4339</v>
+        <v>4331</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>4340</v>
+        <v>4332</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>4341</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:4">
       <c r="A86" s="15" t="s">
-        <v>4342</v>
+        <v>4334</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>4343</v>
+        <v>4335</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>4344</v>
+        <v>4336</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>4345</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:4">
       <c r="A87" s="15" t="s">
-        <v>4346</v>
+        <v>4338</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>4347</v>
+        <v>4339</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>4348</v>
+        <v>4340</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>4349</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:4">
       <c r="A88" s="15" t="s">
-        <v>4350</v>
+        <v>4342</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>4351</v>
+        <v>4343</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>4352</v>
+        <v>4344</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>4353</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:4">
       <c r="A89" s="17" t="s">
-        <v>4354</v>
+        <v>4346</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>4355</v>
+        <v>4347</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>4356</v>
+        <v>4348</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>4357</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:4">
       <c r="A90" s="15" t="s">
-        <v>4358</v>
+        <v>4350</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>4359</v>
+        <v>4351</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>4360</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:4">
       <c r="A91" s="15" t="s">
-        <v>4361</v>
+        <v>4353</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>4362</v>
+        <v>4354</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>4363</v>
+        <v>4355</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>4364</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:4">
       <c r="A92" s="15" t="s">
-        <v>4365</v>
+        <v>4357</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>4366</v>
+        <v>4358</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>4367</v>
+        <v>4359</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>4368</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:4">
       <c r="A93" s="15" t="s">
-        <v>4369</v>
+        <v>4361</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>4370</v>
+        <v>4362</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>4371</v>
+        <v>4363</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>4372</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:4">
       <c r="A94" s="15" t="s">
-        <v>4373</v>
+        <v>4365</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>4374</v>
+        <v>4366</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>4375</v>
+        <v>4367</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>4376</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:4">
       <c r="A95" s="15" t="s">
-        <v>4377</v>
+        <v>4369</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>4378</v>
+        <v>4370</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>4379</v>
+        <v>4371</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>4380</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:4">
       <c r="A96" s="15" t="s">
-        <v>4381</v>
+        <v>4373</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>4382</v>
+        <v>4374</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>4383</v>
+        <v>4375</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>4384</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" s="15" t="s">
-        <v>4385</v>
+        <v>4377</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>4386</v>
+        <v>4378</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>4387</v>
+        <v>4379</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>4388</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" s="15" t="s">
-        <v>4389</v>
+        <v>4381</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>4390</v>
+        <v>4382</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>4391</v>
+        <v>4383</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>4392</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" s="15" t="s">
-        <v>4393</v>
+        <v>4385</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>4394</v>
+        <v>4386</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>4395</v>
+        <v>4387</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>4396</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
       <c r="A100" s="15" t="s">
-        <v>4397</v>
+        <v>4389</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>4398</v>
+        <v>4390</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>4399</v>
+        <v>4391</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>4400</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:4">
       <c r="A101" s="15" t="s">
-        <v>4401</v>
+        <v>4393</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>4402</v>
+        <v>4394</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>4401</v>
+        <v>4393</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>4401</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:4">
@@ -36526,472 +36510,472 @@
         <v>2985</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>4403</v>
+        <v>4395</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>4404</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:4">
       <c r="A103" s="15" t="s">
-        <v>4405</v>
+        <v>4397</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>4406</v>
+        <v>4398</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>4407</v>
+        <v>4399</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>4408</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:4">
       <c r="A104" s="20" t="s">
-        <v>4409</v>
+        <v>4401</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>4410</v>
+        <v>4402</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>4411</v>
+        <v>4403</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>4412</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:4">
       <c r="A105" s="15" t="s">
-        <v>4413</v>
+        <v>4405</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>4414</v>
+        <v>4406</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>4415</v>
+        <v>4407</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>4416</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:4">
       <c r="A106" s="15" t="s">
-        <v>4417</v>
+        <v>4409</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>4418</v>
+        <v>4410</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>4419</v>
+        <v>4411</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>4420</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:4">
       <c r="A107" s="15" t="s">
-        <v>4421</v>
+        <v>4413</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>4422</v>
+        <v>4414</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>4423</v>
+        <v>4415</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>4424</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:4">
       <c r="A108" s="15" t="s">
-        <v>4425</v>
+        <v>4417</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>4426</v>
+        <v>4418</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>4425</v>
+        <v>4417</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>4427</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" s="15" t="s">
-        <v>4428</v>
+        <v>4420</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>4429</v>
+        <v>4421</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>4430</v>
+        <v>4422</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>4431</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:4">
       <c r="A110" s="15" t="s">
-        <v>4432</v>
+        <v>4424</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>4433</v>
+        <v>4425</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>4432</v>
+        <v>4424</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>4434</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:4">
       <c r="A111" s="15" t="s">
-        <v>4435</v>
+        <v>4427</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>3515</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>4436</v>
+        <v>4428</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>4437</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:4">
       <c r="A112" s="15" t="s">
-        <v>4438</v>
+        <v>4430</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>4439</v>
+        <v>4431</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>4440</v>
+        <v>4432</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>4441</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:4">
       <c r="A113" s="15" t="s">
-        <v>4062</v>
+        <v>4054</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>4442</v>
+        <v>4434</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>4444</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:4">
       <c r="A114" s="15" t="s">
-        <v>4445</v>
+        <v>4437</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>4446</v>
+        <v>4438</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>4447</v>
+        <v>4439</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>4448</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:4">
       <c r="A115" s="17" t="s">
-        <v>4449</v>
+        <v>4441</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>4450</v>
+        <v>4442</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>4451</v>
+        <v>4443</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>4452</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:4">
       <c r="A116" s="15" t="s">
-        <v>4453</v>
+        <v>4445</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>4454</v>
+        <v>4446</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>4455</v>
+        <v>4447</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>4456</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:4">
       <c r="A117" s="15" t="s">
-        <v>4457</v>
+        <v>4449</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>4458</v>
+        <v>4450</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>4459</v>
+        <v>4451</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>4460</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:4">
       <c r="A118" s="15" t="s">
-        <v>4461</v>
+        <v>4453</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>4462</v>
+        <v>4454</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>4463</v>
+        <v>4455</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>4464</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:4">
       <c r="A119" s="15" t="s">
-        <v>4465</v>
+        <v>4457</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>4466</v>
+        <v>4458</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>4467</v>
+        <v>4459</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>4468</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:4">
       <c r="A120" s="15" t="s">
-        <v>4469</v>
+        <v>4461</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>4470</v>
+        <v>4462</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>4471</v>
+        <v>4463</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>4472</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:4">
       <c r="A121" s="15" t="s">
-        <v>4473</v>
+        <v>4465</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>4474</v>
+        <v>4466</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>4475</v>
+        <v>4467</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>4476</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
       <c r="A122" s="15" t="s">
-        <v>4477</v>
+        <v>4469</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>4478</v>
+        <v>4470</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>4479</v>
+        <v>4471</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>4480</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:4">
       <c r="A123" s="15" t="s">
-        <v>4481</v>
+        <v>4473</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>4482</v>
+        <v>4474</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>4483</v>
+        <v>4475</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>4484</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:4">
       <c r="A124" s="15" t="s">
-        <v>4485</v>
+        <v>4477</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>4486</v>
+        <v>4478</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>4487</v>
+        <v>4479</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>4488</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:4">
       <c r="A125" s="15" t="s">
-        <v>4489</v>
+        <v>4481</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>4490</v>
+        <v>4482</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>4491</v>
+        <v>4483</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>4492</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:4">
       <c r="A126" s="15" t="s">
-        <v>4493</v>
+        <v>4485</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>4494</v>
+        <v>4486</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>4495</v>
+        <v>4487</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>4496</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:4">
       <c r="A127" s="15" t="s">
-        <v>4497</v>
+        <v>4489</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>4498</v>
+        <v>4490</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>4499</v>
+        <v>4491</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>4500</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:4">
       <c r="A128" s="15" t="s">
-        <v>4501</v>
+        <v>4493</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>4502</v>
+        <v>4494</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>4503</v>
+        <v>4495</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>4504</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:4">
       <c r="A129" s="15" t="s">
-        <v>4505</v>
+        <v>4497</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>4506</v>
+        <v>4498</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>4507</v>
+        <v>4499</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>4508</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:4">
       <c r="A130" s="15" t="s">
-        <v>4509</v>
+        <v>4501</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>4510</v>
+        <v>4502</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>4511</v>
+        <v>4503</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>4512</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" s="15" t="s">
-        <v>4513</v>
+        <v>4505</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>4514</v>
+        <v>4506</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>4515</v>
+        <v>4507</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>4516</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" s="15" t="s">
-        <v>4517</v>
+        <v>4509</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>4518</v>
+        <v>4510</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>4519</v>
+        <v>4511</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>4520</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" s="15" t="s">
-        <v>4521</v>
+        <v>4513</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>4522</v>
+        <v>4514</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>4523</v>
+        <v>4515</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>4524</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" s="15" t="s">
-        <v>4525</v>
+        <v>4517</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>4526</v>
+        <v>4518</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>4527</v>
+        <v>4519</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>4528</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:4">
       <c r="A135" s="15" t="s">
-        <v>4529</v>
+        <v>4521</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>4530</v>
+        <v>4522</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>4531</v>
+        <v>4523</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>4532</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:4">
@@ -37010,324 +36994,324 @@
     </row>
     <row r="137" customHeight="1" spans="1:4">
       <c r="A137" s="15" t="s">
-        <v>4533</v>
+        <v>4525</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>4534</v>
+        <v>4526</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>4535</v>
+        <v>4527</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>4536</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:4">
       <c r="A138" s="15" t="s">
-        <v>4537</v>
+        <v>4529</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>4538</v>
+        <v>4530</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>4539</v>
+        <v>4531</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>4540</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:4">
       <c r="A139" s="15" t="s">
-        <v>4541</v>
+        <v>4533</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>4542</v>
+        <v>4534</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>4543</v>
+        <v>4535</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>4544</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" s="15" t="s">
-        <v>4545</v>
+        <v>4537</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>4546</v>
+        <v>4538</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>4547</v>
+        <v>4539</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>4548</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:4">
       <c r="A141" s="15" t="s">
-        <v>4549</v>
+        <v>4541</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>4550</v>
+        <v>4542</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>4551</v>
+        <v>4543</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>4552</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:4">
       <c r="A142" s="15" t="s">
-        <v>4553</v>
+        <v>4545</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>4554</v>
+        <v>4546</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>4555</v>
+        <v>4547</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>4556</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:4">
       <c r="A143" s="17" t="s">
-        <v>4557</v>
+        <v>4549</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>4558</v>
+        <v>4550</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>4559</v>
+        <v>4551</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>4560</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:4">
       <c r="A144" s="15" t="s">
-        <v>4561</v>
+        <v>4553</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>4562</v>
+        <v>4554</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>4563</v>
+        <v>4555</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>4564</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:4">
       <c r="A145" s="15" t="s">
-        <v>4565</v>
+        <v>4557</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>4566</v>
+        <v>4558</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>4567</v>
+        <v>4559</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>4568</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:4">
       <c r="A146" s="15" t="s">
-        <v>4569</v>
+        <v>4561</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>4570</v>
+        <v>4562</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>4571</v>
+        <v>4563</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>4572</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:4">
       <c r="A147" s="15" t="s">
-        <v>4573</v>
+        <v>4565</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>4574</v>
+        <v>4566</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>4575</v>
+        <v>4567</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>4576</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:4">
       <c r="A148" s="15" t="s">
-        <v>4577</v>
+        <v>4569</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>4578</v>
+        <v>4570</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>4579</v>
+        <v>4571</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>4580</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:4">
       <c r="A149" s="15" t="s">
-        <v>4581</v>
+        <v>4573</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>4582</v>
+        <v>4574</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>4583</v>
+        <v>4575</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>4584</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:4">
       <c r="A150" s="15" t="s">
-        <v>4585</v>
+        <v>4577</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>4586</v>
+        <v>4578</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>4587</v>
+        <v>4579</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>4588</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:4">
       <c r="A151" s="15" t="s">
-        <v>4589</v>
+        <v>4581</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>4590</v>
+        <v>4582</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>4591</v>
+        <v>4583</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>4592</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:4">
       <c r="A152" s="15" t="s">
-        <v>4593</v>
+        <v>4585</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>4594</v>
+        <v>4586</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>4593</v>
+        <v>4585</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>4595</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:4">
       <c r="A153" s="17" t="s">
-        <v>4596</v>
+        <v>4588</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>4597</v>
+        <v>4589</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>4598</v>
+        <v>4590</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>4599</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:4">
       <c r="A154" s="15" t="s">
-        <v>4600</v>
+        <v>4592</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>4601</v>
+        <v>4593</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>4602</v>
+        <v>4594</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>4603</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:4">
       <c r="A155" s="15" t="s">
-        <v>4604</v>
+        <v>4596</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>4605</v>
+        <v>4597</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>4606</v>
+        <v>4598</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>4607</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:4">
       <c r="A156" s="15" t="s">
-        <v>4608</v>
+        <v>4600</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>4609</v>
+        <v>4601</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>4610</v>
+        <v>4602</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>4611</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:4">
       <c r="A157" s="15" t="s">
-        <v>4612</v>
+        <v>4604</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>4613</v>
+        <v>4605</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>4614</v>
+        <v>4606</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>4615</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:4">
       <c r="A158" s="15" t="s">
-        <v>4616</v>
+        <v>4608</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>4617</v>
+        <v>4609</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>4618</v>
+        <v>4610</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>4619</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:4">
       <c r="A159" s="15" t="s">
-        <v>4620</v>
+        <v>4612</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>4621</v>
+        <v>4613</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>4622</v>
+        <v>4614</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>4623</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:4">
@@ -37335,167 +37319,167 @@
         <v>3103</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>4624</v>
+        <v>4616</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>4625</v>
+        <v>4617</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>4626</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:4">
       <c r="A161" s="15" t="s">
-        <v>4202</v>
+        <v>4194</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>4203</v>
+        <v>4195</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>4627</v>
+        <v>4619</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>4628</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:4">
       <c r="A162" s="15" t="s">
-        <v>4629</v>
+        <v>4621</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>4630</v>
+        <v>4622</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>4631</v>
+        <v>4623</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>4632</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:4">
       <c r="A163" s="22" t="s">
-        <v>4633</v>
+        <v>4625</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>4634</v>
+        <v>4626</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>4635</v>
+        <v>4627</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>4636</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:4">
       <c r="A164" s="17" t="s">
-        <v>4637</v>
+        <v>4629</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>4638</v>
+        <v>4630</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>4639</v>
+        <v>4631</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>4640</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:4">
       <c r="A165" s="15" t="s">
-        <v>4641</v>
+        <v>4633</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>4642</v>
+        <v>4634</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>4643</v>
+        <v>4635</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>4644</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:4">
       <c r="A166" s="15" t="s">
-        <v>4645</v>
+        <v>4637</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>4646</v>
+        <v>4638</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>4647</v>
+        <v>4639</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>4648</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:4">
       <c r="A167" s="15" t="s">
-        <v>4649</v>
+        <v>4641</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>4650</v>
+        <v>4642</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>4651</v>
+        <v>4643</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>4652</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:4">
       <c r="A168" s="15" t="s">
-        <v>4653</v>
+        <v>4645</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>4654</v>
+        <v>4646</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>4655</v>
+        <v>4647</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>4656</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:4">
       <c r="A169" s="15" t="s">
-        <v>4657</v>
+        <v>4649</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>4658</v>
+        <v>4650</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>4659</v>
+        <v>4651</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>4660</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:4">
       <c r="A170" s="15" t="s">
-        <v>4661</v>
+        <v>4653</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>4662</v>
+        <v>4654</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>4663</v>
+        <v>4655</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>4664</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:4">
       <c r="A171" s="15" t="s">
-        <v>4665</v>
+        <v>4657</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>4666</v>
+        <v>4658</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>4667</v>
+        <v>4659</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>4668</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:4">
@@ -37509,203 +37493,203 @@
         <v>3127</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>4669</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:4">
       <c r="A173" s="17" t="s">
-        <v>4670</v>
+        <v>4662</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>4671</v>
+        <v>4663</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>4672</v>
+        <v>4664</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>4673</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:4">
       <c r="A174" s="15" t="s">
-        <v>4674</v>
+        <v>4666</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>4675</v>
+        <v>4667</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>4676</v>
+        <v>4668</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>4677</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:4">
       <c r="A175" s="15" t="s">
-        <v>4678</v>
+        <v>4670</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>4679</v>
+        <v>4671</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>4680</v>
+        <v>4672</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>4681</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:4">
       <c r="A176" s="15" t="s">
-        <v>4682</v>
+        <v>4674</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>4683</v>
+        <v>4675</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>4684</v>
+        <v>4676</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>4685</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="1:4">
       <c r="A177" s="17" t="s">
-        <v>4686</v>
+        <v>4678</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>4687</v>
+        <v>4679</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>4688</v>
+        <v>4680</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>4689</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:4">
       <c r="A178" s="15" t="s">
-        <v>4690</v>
+        <v>4682</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>4691</v>
+        <v>4683</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>4692</v>
+        <v>4684</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>4693</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:4">
       <c r="A179" s="17" t="s">
-        <v>4694</v>
+        <v>4686</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>4695</v>
+        <v>4687</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>4696</v>
+        <v>4688</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>4697</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:4">
       <c r="A180" s="15" t="s">
-        <v>4698</v>
+        <v>4690</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>4699</v>
+        <v>4691</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>4700</v>
+        <v>4692</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>4701</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:4">
       <c r="A181" s="15" t="s">
-        <v>4702</v>
+        <v>4694</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>4703</v>
+        <v>4695</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>4704</v>
+        <v>4696</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>4705</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:4">
       <c r="A182" s="15" t="s">
-        <v>4706</v>
+        <v>4698</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>4707</v>
+        <v>4699</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>4708</v>
+        <v>4700</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>4709</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="1:4">
       <c r="A183" s="15" t="s">
-        <v>4710</v>
+        <v>4702</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>4711</v>
+        <v>4703</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>4712</v>
+        <v>4704</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>4713</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:4">
       <c r="A184" s="15" t="s">
-        <v>4714</v>
+        <v>4706</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>4715</v>
+        <v>4707</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>4716</v>
+        <v>4708</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>4717</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="1:4">
       <c r="A185" s="15" t="s">
-        <v>4040</v>
+        <v>4032</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>4718</v>
+        <v>4710</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>4719</v>
+        <v>4711</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>4720</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="1:4">
       <c r="A186" s="15" t="s">
-        <v>4721</v>
+        <v>4713</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>4722</v>
+        <v>4714</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>4723</v>
+        <v>4715</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>4724</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:4">
@@ -37716,192 +37700,192 @@
         <v>3182</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>4725</v>
+        <v>4717</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>4726</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="1:4">
       <c r="A188" s="15" t="s">
-        <v>4727</v>
+        <v>4719</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>4728</v>
+        <v>4720</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>4729</v>
+        <v>4721</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>4730</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="1:4">
       <c r="A189" s="15" t="s">
-        <v>4731</v>
+        <v>4723</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>4732</v>
+        <v>4724</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>4733</v>
+        <v>4725</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>4734</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="1:4">
       <c r="A190" s="15" t="s">
-        <v>4735</v>
+        <v>4727</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>4736</v>
+        <v>4728</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>4737</v>
+        <v>4729</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>4738</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="1:4">
       <c r="A191" s="15" t="s">
-        <v>4739</v>
+        <v>4731</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>4740</v>
+        <v>4732</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>4741</v>
+        <v>4733</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>4742</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="1:4">
       <c r="A192" s="15" t="s">
-        <v>4743</v>
+        <v>4735</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>4744</v>
+        <v>4736</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>4745</v>
+        <v>4737</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>4746</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="1:4">
       <c r="A193" s="15" t="s">
-        <v>4747</v>
+        <v>4739</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>4748</v>
+        <v>4740</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>4749</v>
+        <v>4741</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>4750</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="1:4">
       <c r="A194" s="15" t="s">
-        <v>4751</v>
+        <v>4743</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>4752</v>
+        <v>4744</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>4753</v>
+        <v>4745</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>4754</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="1:4">
       <c r="A195" s="15" t="s">
-        <v>4755</v>
+        <v>4747</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>4756</v>
+        <v>4748</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>4757</v>
+        <v>4749</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>4758</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="1:4">
       <c r="A196" s="15" t="s">
-        <v>4759</v>
+        <v>4751</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>4760</v>
+        <v>4752</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>4761</v>
+        <v>4753</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>4762</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="1:4">
       <c r="A197" s="15" t="s">
-        <v>4763</v>
+        <v>4755</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>4764</v>
+        <v>4756</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>4763</v>
+        <v>4755</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>4765</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="1:4">
       <c r="A198" s="15" t="s">
-        <v>4766</v>
+        <v>4758</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>4767</v>
+        <v>4759</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>4768</v>
+        <v>4760</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>4769</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="1:4">
       <c r="A199" s="24" t="s">
-        <v>4770</v>
+        <v>4762</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>4771</v>
+        <v>4763</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>4772</v>
+        <v>4764</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>4773</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="1:4">
       <c r="A200" s="15" t="s">
-        <v>4774</v>
+        <v>4766</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>4775</v>
+        <v>4767</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>4776</v>
+        <v>4768</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>4777</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="1:4">
@@ -37912,7 +37896,7 @@
         <v>3206</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>4778</v>
+        <v>4770</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>3208</v>
@@ -37920,128 +37904,128 @@
     </row>
     <row r="202" customHeight="1" spans="1:4">
       <c r="A202" s="15" t="s">
-        <v>4779</v>
+        <v>4771</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>4780</v>
+        <v>4772</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>4781</v>
+        <v>4773</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>4782</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="203" customHeight="1" spans="1:4">
       <c r="A203" s="15" t="s">
-        <v>4783</v>
+        <v>4775</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>4784</v>
+        <v>4776</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>4785</v>
+        <v>4777</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>4786</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="1:4">
       <c r="A204" s="15" t="s">
-        <v>4787</v>
+        <v>4779</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>4788</v>
+        <v>4780</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>4789</v>
+        <v>4781</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>4790</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="1:4">
       <c r="A205" s="15" t="s">
-        <v>4791</v>
+        <v>4783</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>4792</v>
+        <v>4784</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>4793</v>
+        <v>4785</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>4794</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="206" customHeight="1" spans="1:4">
       <c r="A206" s="15" t="s">
-        <v>4795</v>
+        <v>4787</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>4796</v>
+        <v>4788</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>4797</v>
+        <v>4789</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>4798</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="1:4">
       <c r="A207" s="15" t="s">
-        <v>4799</v>
+        <v>4791</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>4800</v>
+        <v>4792</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>4801</v>
+        <v>4793</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>4802</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="1:4">
       <c r="A208" s="17" t="s">
-        <v>4803</v>
+        <v>4795</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>4804</v>
+        <v>4796</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>4805</v>
+        <v>4797</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>4806</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="209" customHeight="1" spans="1:4">
       <c r="A209" s="15" t="s">
-        <v>4807</v>
+        <v>4799</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>4808</v>
+        <v>4800</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>4809</v>
+        <v>4801</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>4810</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="1:4">
       <c r="A210" s="15" t="s">
-        <v>4811</v>
+        <v>4803</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>4812</v>
+        <v>4804</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>4813</v>
+        <v>4805</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>4814</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="1:4">
@@ -38060,114 +38044,114 @@
     </row>
     <row r="212" customHeight="1" spans="1:4">
       <c r="A212" s="15" t="s">
-        <v>4815</v>
+        <v>4807</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>4816</v>
+        <v>4808</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>4817</v>
+        <v>4809</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>4818</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="1:4">
       <c r="A213" s="17" t="s">
-        <v>4819</v>
+        <v>4811</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>4820</v>
+        <v>4812</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>4821</v>
+        <v>4813</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>4822</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="1:4">
       <c r="A214" s="15" t="s">
-        <v>4823</v>
+        <v>4815</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>4824</v>
+        <v>4816</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>4825</v>
+        <v>4817</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>4826</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="215" customHeight="1" spans="1:4">
       <c r="A215" s="15" t="s">
-        <v>4827</v>
+        <v>4819</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>4828</v>
+        <v>4820</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>4829</v>
+        <v>4821</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>4830</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="1:4">
       <c r="A216" s="15" t="s">
-        <v>4831</v>
+        <v>4823</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>4832</v>
+        <v>4824</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>4833</v>
+        <v>4825</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>4834</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="1:4">
       <c r="A217" s="15" t="s">
-        <v>4835</v>
+        <v>4827</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>4836</v>
+        <v>4828</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>4837</v>
+        <v>4829</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>4838</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="218" customHeight="1" spans="1:4">
       <c r="A218" s="15" t="s">
-        <v>4839</v>
+        <v>4831</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>4840</v>
+        <v>4832</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>4841</v>
+        <v>4833</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>4842</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="1:4">
       <c r="A219" s="15" t="s">
-        <v>4843</v>
+        <v>4835</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>4844</v>
+        <v>4836</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>4845</v>
+        <v>4837</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>4846</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="1:4">
@@ -38186,30 +38170,30 @@
     </row>
     <row r="221" customHeight="1" spans="1:4">
       <c r="A221" s="15" t="s">
-        <v>4847</v>
+        <v>4839</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>4848</v>
+        <v>4840</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>4849</v>
+        <v>4841</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>4850</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="1:4">
       <c r="A222" s="15" t="s">
-        <v>4851</v>
+        <v>4843</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>4852</v>
+        <v>4844</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>4853</v>
+        <v>4845</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>4854</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="1:4">
@@ -38220,68 +38204,83 @@
         <v>3331</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>4855</v>
+        <v>4847</v>
       </c>
       <c r="D223" s="15" t="s">
         <v>3333</v>
       </c>
     </row>
-    <row r="224" customHeight="1" spans="1:3">
+    <row r="224" customHeight="1" spans="1:4">
       <c r="A224" s="17" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>4849</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>4850</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:4">
+      <c r="A225" s="15" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>4853</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>4854</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:4">
+      <c r="A226" s="15" t="s">
         <v>4856</v>
       </c>
-      <c r="B224" s="15" t="s">
+      <c r="B226" s="15" t="s">
         <v>4857</v>
       </c>
-      <c r="C224" s="15" t="s">
+      <c r="C226" s="15" t="s">
         <v>4858</v>
       </c>
-    </row>
-    <row r="225" customHeight="1" spans="1:3">
-      <c r="A225" s="15" t="s">
+      <c r="D226" s="15" t="s">
         <v>4859</v>
       </c>
-      <c r="B225" s="15" t="s">
+    </row>
+    <row r="227" customHeight="1" spans="1:4">
+      <c r="A227" s="15" t="s">
         <v>4860</v>
       </c>
-      <c r="C225" s="15" t="s">
+      <c r="B227" s="15" t="s">
         <v>4861</v>
       </c>
-    </row>
-    <row r="226" customHeight="1" spans="1:3">
-      <c r="A226" s="15" t="s">
+      <c r="C227" s="15" t="s">
         <v>4862</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="D227" s="15" t="s">
         <v>4863</v>
       </c>
-      <c r="C226" s="15" t="s">
+    </row>
+    <row r="228" customHeight="1" spans="1:4">
+      <c r="A228" s="15" t="s">
         <v>4864</v>
       </c>
-    </row>
-    <row r="227" customHeight="1" spans="1:3">
-      <c r="A227" s="15" t="s">
+      <c r="B228" s="15" t="s">
         <v>4865</v>
       </c>
-      <c r="B227" s="15" t="s">
+      <c r="C228" s="15" t="s">
         <v>4866</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="D228" s="15" t="s">
         <v>4867</v>
       </c>
     </row>
-    <row r="228" customHeight="1" spans="1:3">
-      <c r="A228" s="15" t="s">
-        <v>4868</v>
-      </c>
-      <c r="B228" s="15" t="s">
-        <v>4869</v>
-      </c>
-      <c r="C228" s="15" t="s">
-        <v>4870</v>
-      </c>
-    </row>
-    <row r="229" customHeight="1" spans="1:3">
+    <row r="229" customHeight="1" spans="1:4">
       <c r="A229" s="15" t="s">
         <v>3345</v>
       </c>
@@ -38289,10 +38288,13 @@
         <v>3346</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>4871</v>
-      </c>
-    </row>
-    <row r="230" customHeight="1" spans="1:3">
+        <v>4868</v>
+      </c>
+      <c r="D229" s="15" t="s">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="230" customHeight="1" spans="1:4">
       <c r="A230" s="15" t="s">
         <v>3349</v>
       </c>
@@ -38302,19 +38304,25 @@
       <c r="C230" s="15" t="s">
         <v>3351</v>
       </c>
-    </row>
-    <row r="231" customHeight="1" spans="1:3">
+      <c r="D230" s="15" t="s">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:4">
       <c r="A231" s="15" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B231" s="15" t="s">
         <v>4872</v>
       </c>
-      <c r="B231" s="15" t="s">
+      <c r="C231" s="15" t="s">
         <v>4873</v>
       </c>
-      <c r="C231" s="15" t="s">
+      <c r="D231" s="15" t="s">
         <v>4874</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:3">
+    <row r="232" customHeight="1" spans="1:4">
       <c r="A232" s="15" t="s">
         <v>4875</v>
       </c>
@@ -38324,38 +38332,50 @@
       <c r="C232" s="15" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="233" customHeight="1" spans="1:3">
+      <c r="D232" s="15" t="s">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="1:4">
       <c r="A233" s="15" t="s">
-        <v>4878</v>
+        <v>4879</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>4879</v>
+        <v>4880</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="234" customHeight="1" spans="1:3">
+        <v>4881</v>
+      </c>
+      <c r="D233" s="15" t="s">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="1:4">
       <c r="A234" s="15" t="s">
-        <v>4881</v>
+        <v>4883</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>4882</v>
+        <v>4884</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>4883</v>
-      </c>
-    </row>
-    <row r="235" customHeight="1" spans="1:3">
+        <v>4885</v>
+      </c>
+      <c r="D234" s="15" t="s">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="1:4">
       <c r="A235" s="15" t="s">
-        <v>4884</v>
+        <v>4887</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>4885</v>
+        <v>4888</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>4886</v>
+        <v>4889</v>
+      </c>
+      <c r="D235" s="15" t="s">
+        <v>4890</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="1:2">
@@ -38385,37 +38405,37 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>4887</v>
+        <v>4891</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4888</v>
+        <v>4892</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4889</v>
+        <v>4893</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4890</v>
+        <v>4894</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>4891</v>
+        <v>4895</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>4892</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
@@ -38426,28 +38446,28 @@
         <v>3377</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>4893</v>
+        <v>4897</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>4894</v>
+        <v>4898</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>4895</v>
+        <v>4899</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>4896</v>
+        <v>4900</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>636</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>4897</v>
+        <v>4901</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>4898</v>
+        <v>4902</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>4899</v>
+        <v>4903</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>3379</v>
@@ -38458,31 +38478,31 @@
         <v>3380</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>4900</v>
+        <v>4904</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>4901</v>
+        <v>4905</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>4902</v>
+        <v>4906</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>4903</v>
+        <v>4907</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>4904</v>
+        <v>4908</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>4905</v>
+        <v>4909</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>4906</v>
+        <v>4910</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>4907</v>
+        <v>4911</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>4908</v>
+        <v>4912</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>3383</v>
@@ -38496,28 +38516,28 @@
         <v>3393</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>4909</v>
+        <v>4913</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>4911</v>
+        <v>4915</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>4912</v>
+        <v>4916</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>4913</v>
+        <v>4917</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>4914</v>
+        <v>4918</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>4915</v>
+        <v>4919</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>4916</v>
+        <v>4920</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>3395</v>
@@ -38525,37 +38545,37 @@
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="15" t="s">
-        <v>4917</v>
+        <v>4921</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>4918</v>
+        <v>4922</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>4919</v>
+        <v>4923</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>4920</v>
+        <v>4924</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>4921</v>
+        <v>4925</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>4922</v>
+        <v>4926</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>4923</v>
+        <v>4927</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>4924</v>
+        <v>4928</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>4925</v>
+        <v>4929</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>4926</v>
+        <v>4930</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>4927</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:11">
@@ -38566,28 +38586,28 @@
         <v>3428</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>4928</v>
+        <v>4932</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>4929</v>
+        <v>4933</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>4930</v>
+        <v>4934</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>4931</v>
+        <v>4935</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>4932</v>
+        <v>4936</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>4933</v>
+        <v>4937</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>4934</v>
+        <v>4938</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>4935</v>
+        <v>4939</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>3430</v>
@@ -38601,28 +38621,28 @@
         <v>3436</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>4936</v>
+        <v>4940</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>4937</v>
+        <v>4941</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>4938</v>
+        <v>4942</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>4939</v>
+        <v>4943</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>4936</v>
+        <v>4940</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>4937</v>
+        <v>4941</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>4940</v>
+        <v>4944</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>4941</v>
+        <v>4945</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>3438</v>
@@ -38636,28 +38656,28 @@
         <v>3440</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>4942</v>
+        <v>4946</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>4943</v>
+        <v>4947</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>4944</v>
+        <v>4948</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>4945</v>
+        <v>4949</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>4946</v>
+        <v>4950</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>4947</v>
+        <v>4951</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>4948</v>
+        <v>4952</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>4949</v>
+        <v>4953</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>3442</v>
@@ -38671,28 +38691,28 @@
         <v>3444</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>4950</v>
+        <v>4954</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>4951</v>
+        <v>4955</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>4952</v>
+        <v>4956</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>4953</v>
+        <v>4957</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>4954</v>
+        <v>4958</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>4955</v>
+        <v>4959</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>4956</v>
+        <v>4960</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>4957</v>
+        <v>4961</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>3446</v>
@@ -38706,28 +38726,28 @@
         <v>3460</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>4958</v>
+        <v>4962</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>4959</v>
+        <v>4963</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>4960</v>
+        <v>4964</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>4961</v>
+        <v>4965</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>4958</v>
+        <v>4962</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>4959</v>
+        <v>4963</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>4962</v>
+        <v>4966</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>4963</v>
+        <v>4967</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>3462</v>
@@ -38741,28 +38761,28 @@
         <v>3476</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>4964</v>
+        <v>4968</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>4965</v>
+        <v>4969</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>4966</v>
+        <v>4970</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>4967</v>
+        <v>4971</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>4966</v>
+        <v>4970</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>4967</v>
+        <v>4971</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>4968</v>
+        <v>4972</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>4969</v>
+        <v>4973</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>3478</v>
@@ -38776,28 +38796,28 @@
         <v>3550</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>4970</v>
+        <v>4974</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>628</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>4971</v>
+        <v>4975</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>4972</v>
+        <v>4976</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>4970</v>
+        <v>4974</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>628</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>4973</v>
+        <v>4977</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>4974</v>
+        <v>4978</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>3552</v>
@@ -38811,28 +38831,28 @@
         <v>3554</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>4975</v>
+        <v>4979</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>4977</v>
+        <v>4981</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>4978</v>
+        <v>4982</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>4975</v>
+        <v>4979</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>4979</v>
+        <v>4983</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>4980</v>
+        <v>4984</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>3556</v>
@@ -38846,28 +38866,28 @@
         <v>3582</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>4981</v>
+        <v>4985</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>4982</v>
+        <v>4986</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>4983</v>
+        <v>4987</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>4984</v>
+        <v>4988</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>4985</v>
+        <v>4989</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>4987</v>
+        <v>4991</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>4988</v>
+        <v>4992</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>3584</v>
@@ -38881,28 +38901,28 @@
         <v>3686</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>4989</v>
+        <v>4993</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>4990</v>
+        <v>4994</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>4991</v>
+        <v>4995</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>4992</v>
+        <v>4996</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>4993</v>
+        <v>4997</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>4994</v>
+        <v>4998</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>4995</v>
+        <v>4999</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>3688</v>
@@ -38916,28 +38936,28 @@
         <v>3693</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>4997</v>
+        <v>5001</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>4998</v>
+        <v>5002</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>4999</v>
+        <v>5003</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>5000</v>
+        <v>5004</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>5001</v>
+        <v>5005</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>5002</v>
+        <v>5006</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>5003</v>
+        <v>5007</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>3695</v>
@@ -38948,31 +38968,31 @@
         <v>3716</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>5005</v>
+        <v>5009</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>5006</v>
+        <v>5010</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>5007</v>
+        <v>5011</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>5008</v>
+        <v>5012</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>5010</v>
+        <v>5014</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>5011</v>
+        <v>5015</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>5012</v>
+        <v>5016</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>5013</v>
+        <v>5017</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>3719</v>
@@ -38986,31 +39006,31 @@
         <v>551</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>5014</v>
+        <v>5018</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>5015</v>
+        <v>5019</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>5017</v>
+        <v>5021</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>5017</v>
+        <v>5021</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>5018</v>
+        <v>5022</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>5019</v>
+        <v>5023</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>5020</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="19" ht="120" customHeight="1" spans="1:11">
@@ -39021,28 +39041,28 @@
         <v>3729</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>5021</v>
+        <v>5025</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>5022</v>
+        <v>5026</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>5023</v>
+        <v>5027</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>5024</v>
+        <v>5028</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>5025</v>
+        <v>5029</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>5026</v>
+        <v>5030</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>5027</v>
+        <v>5031</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>5028</v>
+        <v>5032</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>3731</v>
@@ -39056,28 +39076,28 @@
         <v>3733</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>5029</v>
+        <v>5033</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>5030</v>
+        <v>5034</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>5031</v>
+        <v>5035</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>5032</v>
+        <v>5036</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>5033</v>
+        <v>5037</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>5034</v>
+        <v>5038</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>5035</v>
+        <v>5039</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>5036</v>
+        <v>5040</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>3735</v>
@@ -39088,31 +39108,31 @@
         <v>3724</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>5037</v>
+        <v>5041</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>5038</v>
+        <v>5042</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>5039</v>
+        <v>5043</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>5040</v>
+        <v>5044</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>5041</v>
+        <v>5045</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>5038</v>
+        <v>5042</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>5039</v>
+        <v>5043</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>5042</v>
+        <v>5046</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>5043</v>
+        <v>5047</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>3466</v>
@@ -39126,31 +39146,31 @@
         <v>3931</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>5044</v>
+        <v>5048</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>5045</v>
+        <v>5049</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>5046</v>
+        <v>5050</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>5047</v>
+        <v>5051</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>5046</v>
+        <v>5050</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>5047</v>
+        <v>5051</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>5048</v>
+        <v>5052</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>5049</v>
+        <v>5053</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>5050</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -39158,34 +39178,34 @@
         <v>3938</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>5051</v>
+        <v>5055</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>5052</v>
+        <v>5056</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>5053</v>
+        <v>5057</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>5054</v>
+        <v>5058</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>5055</v>
+        <v>5059</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>5056</v>
+        <v>5060</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>5057</v>
+        <v>5061</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>5058</v>
+        <v>5062</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>5059</v>
+        <v>5063</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>5060</v>
+        <v>5064</v>
       </c>
     </row>
   </sheetData>
@@ -39212,37 +39232,37 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>5061</v>
+        <v>5065</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5062</v>
+        <v>5066</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5063</v>
+        <v>5067</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5064</v>
+        <v>5068</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5065</v>
+        <v>5069</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2891</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>4892</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
@@ -39253,31 +39273,31 @@
         <v>3373</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5066</v>
+        <v>5070</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5067</v>
+        <v>5071</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5068</v>
+        <v>5072</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5069</v>
+        <v>5073</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5070</v>
+        <v>5074</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5071</v>
+        <v>5075</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5072</v>
+        <v>5076</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5073</v>
+        <v>5077</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>5074</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
@@ -39288,28 +39308,28 @@
         <v>3377</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5075</v>
+        <v>5079</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5076</v>
+        <v>5080</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5077</v>
+        <v>5081</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5078</v>
+        <v>5082</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5079</v>
+        <v>5083</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5080</v>
+        <v>5084</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5081</v>
+        <v>5085</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5082</v>
+        <v>5086</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>3379</v>
@@ -39320,31 +39340,31 @@
         <v>3380</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>4900</v>
+        <v>4904</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5083</v>
+        <v>5087</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5084</v>
+        <v>5088</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5085</v>
+        <v>5089</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5086</v>
+        <v>5090</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5087</v>
+        <v>5091</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5088</v>
+        <v>5092</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>5089</v>
+        <v>5093</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>5090</v>
+        <v>5094</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>3383</v>
@@ -39358,28 +39378,28 @@
         <v>3393</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5091</v>
+        <v>5095</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5092</v>
+        <v>5096</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5093</v>
+        <v>5097</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5094</v>
+        <v>5098</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5095</v>
+        <v>5099</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5096</v>
+        <v>5100</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>5097</v>
+        <v>5101</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5098</v>
+        <v>5102</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>3395</v>
@@ -39387,37 +39407,37 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>4917</v>
+        <v>4921</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>4918</v>
+        <v>4922</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5099</v>
+        <v>5103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5100</v>
+        <v>5104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5102</v>
+        <v>5106</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5103</v>
+        <v>5107</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>5104</v>
+        <v>5108</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>5105</v>
+        <v>5109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>5106</v>
+        <v>5110</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>4927</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -39428,28 +39448,28 @@
         <v>3428</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5107</v>
+        <v>5111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5108</v>
+        <v>5112</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5109</v>
+        <v>5113</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5110</v>
+        <v>5114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>5111</v>
+        <v>5115</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>5112</v>
+        <v>5116</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>5113</v>
+        <v>5117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>5114</v>
+        <v>5118</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>3430</v>
@@ -39463,28 +39483,28 @@
         <v>3436</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5115</v>
+        <v>5119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5116</v>
+        <v>5120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5117</v>
+        <v>5121</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5118</v>
+        <v>5122</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>5119</v>
+        <v>5123</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5120</v>
+        <v>5124</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>5121</v>
+        <v>5125</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>5122</v>
+        <v>5126</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>3438</v>
@@ -39498,28 +39518,28 @@
         <v>3440</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5123</v>
+        <v>5127</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5124</v>
+        <v>5128</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5125</v>
+        <v>5129</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5126</v>
+        <v>5130</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>5127</v>
+        <v>5131</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5128</v>
+        <v>5132</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>5129</v>
+        <v>5133</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>5130</v>
+        <v>5134</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>3442</v>
@@ -39533,28 +39553,28 @@
         <v>3444</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5131</v>
+        <v>5135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5132</v>
+        <v>5136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5133</v>
+        <v>5137</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5134</v>
+        <v>5138</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>5135</v>
+        <v>5139</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>5136</v>
+        <v>5140</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>5137</v>
+        <v>5141</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>5138</v>
+        <v>5142</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>3446</v>
@@ -39568,28 +39588,28 @@
         <v>3460</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5139</v>
+        <v>5143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5140</v>
+        <v>5144</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5141</v>
+        <v>5145</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5142</v>
+        <v>5146</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>5143</v>
+        <v>5147</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>5144</v>
+        <v>5148</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>5145</v>
+        <v>5149</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>5146</v>
+        <v>5150</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>3462</v>
@@ -39603,28 +39623,28 @@
         <v>3476</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5147</v>
+        <v>5151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5148</v>
+        <v>5152</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5149</v>
+        <v>5153</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>5150</v>
+        <v>5154</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>5151</v>
+        <v>5155</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>5152</v>
+        <v>5156</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>5153</v>
+        <v>5157</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>5154</v>
+        <v>5158</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>3478</v>
@@ -39638,28 +39658,28 @@
         <v>3550</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5155</v>
+        <v>5159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5156</v>
+        <v>5160</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5157</v>
+        <v>5161</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5158</v>
+        <v>5162</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>5159</v>
+        <v>5163</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>5160</v>
+        <v>5164</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>5161</v>
+        <v>5165</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>3552</v>
@@ -39673,28 +39693,28 @@
         <v>3554</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5163</v>
+        <v>5167</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5164</v>
+        <v>5168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5165</v>
+        <v>5169</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5164</v>
+        <v>5168</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>5166</v>
+        <v>5170</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>5167</v>
+        <v>5171</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>5168</v>
+        <v>5172</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>5169</v>
+        <v>5173</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>3556</v>
@@ -39708,28 +39728,28 @@
         <v>3582</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5170</v>
+        <v>5174</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>4233</v>
+        <v>4225</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5171</v>
+        <v>5175</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5172</v>
+        <v>5176</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>5173</v>
+        <v>5177</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>5174</v>
+        <v>5178</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>5175</v>
+        <v>5179</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>5176</v>
+        <v>5180</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>3584</v>
@@ -39743,28 +39763,28 @@
         <v>3686</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5177</v>
+        <v>5181</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5178</v>
+        <v>5182</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5179</v>
+        <v>5183</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>5180</v>
+        <v>5184</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>5181</v>
+        <v>5185</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>5182</v>
+        <v>5186</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>5183</v>
+        <v>5187</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>5184</v>
+        <v>5188</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>3688</v>
@@ -39778,28 +39798,28 @@
         <v>3693</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5185</v>
+        <v>5189</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5186</v>
+        <v>5190</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5187</v>
+        <v>5191</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5188</v>
+        <v>5192</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>5189</v>
+        <v>5193</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>5190</v>
+        <v>5194</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>5191</v>
+        <v>5195</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>5192</v>
+        <v>5196</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>3695</v>
@@ -39810,31 +39830,31 @@
         <v>3716</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5005</v>
+        <v>5009</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5193</v>
+        <v>5197</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5194</v>
+        <v>5198</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5195</v>
+        <v>5199</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>5196</v>
+        <v>5200</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>5197</v>
+        <v>5201</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>5198</v>
+        <v>5202</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>5199</v>
+        <v>5203</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>5200</v>
+        <v>5204</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>3719</v>
@@ -39845,34 +39865,34 @@
         <v>3384</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5201</v>
+        <v>5205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5202</v>
+        <v>5206</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5203</v>
+        <v>5207</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5204</v>
+        <v>5208</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5205</v>
+        <v>5209</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>5206</v>
+        <v>5210</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>5207</v>
+        <v>5211</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>5208</v>
+        <v>5212</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>5209</v>
+        <v>5213</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>5210</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -39880,31 +39900,31 @@
         <v>3423</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5211</v>
+        <v>5215</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5212</v>
+        <v>5216</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5213</v>
+        <v>5217</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5214</v>
+        <v>5218</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5215</v>
+        <v>5219</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>5216</v>
+        <v>5220</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>5217</v>
+        <v>5221</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>5218</v>
+        <v>5222</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>5219</v>
+        <v>5223</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>3426</v>
@@ -39918,28 +39938,28 @@
         <v>3448</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5220</v>
+        <v>5224</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5221</v>
+        <v>5225</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5222</v>
+        <v>5226</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5223</v>
+        <v>5227</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>5224</v>
+        <v>5228</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>5225</v>
+        <v>5229</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>5226</v>
+        <v>5230</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>5227</v>
+        <v>5231</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>3450</v>
@@ -39953,28 +39973,28 @@
         <v>3452</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5228</v>
+        <v>5232</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5229</v>
+        <v>5233</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5230</v>
+        <v>5234</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>5231</v>
+        <v>5235</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>5232</v>
+        <v>5236</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>5233</v>
+        <v>5237</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>5234</v>
+        <v>5238</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>5235</v>
+        <v>5239</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>3454</v>
@@ -39988,28 +40008,28 @@
         <v>3456</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5236</v>
+        <v>5240</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5237</v>
+        <v>5241</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5238</v>
+        <v>5242</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>5239</v>
+        <v>5243</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>5240</v>
+        <v>5244</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>5241</v>
+        <v>5245</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>5242</v>
+        <v>5246</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>5243</v>
+        <v>5247</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>3458</v>
@@ -40020,34 +40040,34 @@
         <v>3483</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5244</v>
+        <v>5248</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5245</v>
+        <v>5249</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5246</v>
+        <v>5250</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5247</v>
+        <v>5251</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5248</v>
+        <v>5252</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>5249</v>
+        <v>5253</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>5250</v>
+        <v>5254</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>5251</v>
+        <v>5255</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>5252</v>
+        <v>5256</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>5253</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -40055,31 +40075,31 @@
         <v>3503</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5254</v>
+        <v>5258</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5255</v>
+        <v>5259</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5256</v>
+        <v>5260</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5257</v>
+        <v>5261</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>5258</v>
+        <v>5262</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>5259</v>
+        <v>5263</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>5260</v>
+        <v>5264</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>5261</v>
+        <v>5265</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>5262</v>
+        <v>5266</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>3506</v>
@@ -40090,31 +40110,31 @@
         <v>3507</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5263</v>
+        <v>5267</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5264</v>
+        <v>5268</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5265</v>
+        <v>5269</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5266</v>
+        <v>5270</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5267</v>
+        <v>5271</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>5268</v>
+        <v>5272</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>5269</v>
+        <v>5273</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>5270</v>
+        <v>5274</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>5271</v>
+        <v>5275</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>3510</v>
@@ -40128,31 +40148,31 @@
         <v>551</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5272</v>
+        <v>5276</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5273</v>
+        <v>5277</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5274</v>
+        <v>5278</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5275</v>
+        <v>5279</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>5276</v>
+        <v>5280</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>5277</v>
+        <v>5281</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>5278</v>
+        <v>5282</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>5279</v>
+        <v>5283</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>5020</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -40163,28 +40183,28 @@
         <v>3515</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5280</v>
+        <v>5284</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5281</v>
+        <v>5285</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5282</v>
+        <v>5286</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5283</v>
+        <v>5287</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>5284</v>
+        <v>5288</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>5285</v>
+        <v>5289</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>5286</v>
+        <v>5290</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>5287</v>
+        <v>5291</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>3517</v>
@@ -40198,28 +40218,28 @@
         <v>3519</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5288</v>
+        <v>5292</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5289</v>
+        <v>5293</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5290</v>
+        <v>5294</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5291</v>
+        <v>5295</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>5292</v>
+        <v>5296</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>5293</v>
+        <v>5297</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>5294</v>
+        <v>5298</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>5295</v>
+        <v>5299</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>3521</v>
@@ -40230,31 +40250,31 @@
         <v>3522</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5296</v>
+        <v>5300</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5297</v>
+        <v>5301</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5298</v>
+        <v>5302</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5299</v>
+        <v>5303</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>5300</v>
+        <v>5304</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>5301</v>
+        <v>5305</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>5302</v>
+        <v>5306</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>5303</v>
+        <v>5307</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>5304</v>
+        <v>5308</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>3525</v>
@@ -40265,31 +40285,31 @@
         <v>3561</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5305</v>
+        <v>5309</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5306</v>
+        <v>5310</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5307</v>
+        <v>5311</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>5308</v>
+        <v>5312</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5309</v>
+        <v>5313</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>5310</v>
+        <v>5314</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>5311</v>
+        <v>5315</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>5312</v>
+        <v>5316</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>5313</v>
+        <v>5317</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>3564</v>
@@ -40303,28 +40323,28 @@
         <v>3574</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5314</v>
+        <v>5318</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5315</v>
+        <v>5319</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>5316</v>
+        <v>5320</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>5317</v>
+        <v>5321</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>5318</v>
+        <v>5322</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>5319</v>
+        <v>5323</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>5320</v>
+        <v>5324</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>5321</v>
+        <v>5325</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>3576</v>
@@ -40335,34 +40355,34 @@
         <v>3577</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5322</v>
+        <v>5326</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5323</v>
+        <v>5327</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5324</v>
+        <v>5328</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>5325</v>
+        <v>5329</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>5326</v>
+        <v>5330</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>5327</v>
+        <v>5331</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>5328</v>
+        <v>5332</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>5329</v>
+        <v>5333</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>5330</v>
+        <v>5334</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>5331</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -40373,28 +40393,28 @@
         <v>3594</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5332</v>
+        <v>5336</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5333</v>
+        <v>5337</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>5334</v>
+        <v>5338</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5335</v>
+        <v>5339</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>5336</v>
+        <v>5340</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>5337</v>
+        <v>5341</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>5338</v>
+        <v>5342</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>5339</v>
+        <v>5343</v>
       </c>
       <c r="K34" s="18" t="s">
         <v>3596</v>
@@ -40408,28 +40428,28 @@
         <v>3598</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5340</v>
+        <v>5344</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5341</v>
+        <v>5345</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>5342</v>
+        <v>5346</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5343</v>
+        <v>5347</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>5344</v>
+        <v>5348</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>5345</v>
+        <v>5349</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>5346</v>
+        <v>5350</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>5347</v>
+        <v>5351</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>3600</v>
@@ -40440,31 +40460,31 @@
         <v>3601</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5348</v>
+        <v>5352</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5349</v>
+        <v>5353</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>5350</v>
+        <v>5354</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>5351</v>
+        <v>5355</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>5352</v>
+        <v>5356</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>5353</v>
+        <v>5357</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>5354</v>
+        <v>5358</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>5355</v>
+        <v>5359</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>5356</v>
+        <v>5360</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>3604</v>
@@ -40475,69 +40495,69 @@
         <v>3609</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5357</v>
+        <v>5361</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5358</v>
+        <v>5362</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5359</v>
+        <v>5363</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>5360</v>
+        <v>5364</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>5361</v>
+        <v>5365</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>5362</v>
+        <v>5366</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>5363</v>
+        <v>5367</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>5364</v>
+        <v>5368</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>5365</v>
+        <v>5369</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>5366</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>3625</v>
+        <v>5371</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5367</v>
+        <v>5372</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5368</v>
+        <v>5373</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5369</v>
+        <v>5374</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5370</v>
+        <v>5375</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5371</v>
+        <v>5376</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>5372</v>
+        <v>5377</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>5373</v>
+        <v>5378</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>5374</v>
+        <v>5379</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>5375</v>
+        <v>5380</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>5376</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:11">
@@ -40545,31 +40565,31 @@
         <v>3645</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5377</v>
+        <v>5382</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5378</v>
+        <v>5383</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>5379</v>
+        <v>5384</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>5380</v>
+        <v>5385</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5381</v>
+        <v>5386</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>5382</v>
+        <v>5387</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>5383</v>
+        <v>5388</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>5384</v>
+        <v>5389</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>5385</v>
+        <v>5390</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>3648</v>
@@ -40583,28 +40603,28 @@
         <v>3650</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5386</v>
+        <v>5391</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5186</v>
+        <v>5190</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>5387</v>
+        <v>5392</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5188</v>
+        <v>5192</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>5388</v>
+        <v>5393</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>5389</v>
+        <v>5394</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>5390</v>
+        <v>5395</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>5192</v>
+        <v>5196</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>3652</v>
@@ -40618,28 +40638,28 @@
         <v>3721</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5391</v>
+        <v>5396</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5392</v>
+        <v>5397</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5393</v>
+        <v>5398</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>5394</v>
+        <v>5399</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>5395</v>
+        <v>5400</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>5396</v>
+        <v>5401</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>5397</v>
+        <v>5402</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>5398</v>
+        <v>5403</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>3723</v>
@@ -40653,28 +40673,28 @@
         <v>3729</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5399</v>
+        <v>5404</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5400</v>
+        <v>5405</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5401</v>
+        <v>5406</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5402</v>
+        <v>5407</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>5403</v>
+        <v>5408</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>5404</v>
+        <v>5409</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>5405</v>
+        <v>5410</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>5406</v>
+        <v>5411</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>3731</v>
@@ -40688,28 +40708,28 @@
         <v>3733</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5407</v>
+        <v>5412</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5408</v>
+        <v>5413</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>5409</v>
+        <v>5414</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5410</v>
+        <v>5415</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>5411</v>
+        <v>5416</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>5412</v>
+        <v>5417</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>5413</v>
+        <v>5418</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>5414</v>
+        <v>5419</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>3735</v>
@@ -40723,28 +40743,28 @@
         <v>3741</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5415</v>
+        <v>5420</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>5416</v>
+        <v>5421</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5417</v>
+        <v>5422</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>5418</v>
+        <v>5423</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>5419</v>
+        <v>5424</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>5421</v>
+        <v>5426</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>5422</v>
+        <v>5427</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>3743</v>
@@ -40758,28 +40778,28 @@
         <v>3825</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5423</v>
+        <v>5428</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5424</v>
+        <v>5429</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>5425</v>
+        <v>5430</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5426</v>
+        <v>5431</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>5427</v>
+        <v>5432</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>5428</v>
+        <v>5433</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>5429</v>
+        <v>5434</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>5430</v>
+        <v>5435</v>
       </c>
       <c r="K45" s="15" t="s">
         <v>3827</v>
@@ -40790,34 +40810,34 @@
         <v>3840</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5431</v>
+        <v>5436</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5432</v>
+        <v>5437</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>5433</v>
+        <v>5438</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>5434</v>
+        <v>5439</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>5435</v>
+        <v>5440</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>5436</v>
+        <v>5441</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>5437</v>
+        <v>5442</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>5438</v>
+        <v>5443</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>5439</v>
+        <v>5444</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>5440</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:11">
@@ -40825,34 +40845,34 @@
         <v>3863</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5441</v>
+        <v>5446</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5442</v>
+        <v>5447</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5443</v>
+        <v>5448</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5444</v>
+        <v>5449</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>5445</v>
+        <v>5450</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>5446</v>
+        <v>5451</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>5447</v>
+        <v>5452</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>5448</v>
+        <v>5453</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>5449</v>
+        <v>5454</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>5450</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:11">
@@ -40863,31 +40883,31 @@
         <v>3895</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5451</v>
+        <v>5456</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>5452</v>
+        <v>5457</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>5453</v>
+        <v>5458</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5454</v>
+        <v>5459</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>5455</v>
+        <v>5460</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>5456</v>
+        <v>5461</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>5457</v>
+        <v>5462</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>5458</v>
+        <v>5463</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>5459</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:11">
@@ -40895,31 +40915,31 @@
         <v>3926</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5460</v>
+        <v>5465</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5461</v>
+        <v>5466</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5462</v>
+        <v>5467</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>5463</v>
+        <v>5468</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5464</v>
+        <v>5469</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>5466</v>
+        <v>5471</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>5467</v>
+        <v>5472</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>5468</v>
+        <v>5473</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>3929</v>
@@ -40933,31 +40953,31 @@
         <v>3931</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5469</v>
+        <v>5474</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5470</v>
+        <v>5475</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>5471</v>
+        <v>5476</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5472</v>
+        <v>5477</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>5473</v>
+        <v>5478</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>5474</v>
+        <v>5479</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>5475</v>
+        <v>5480</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>5476</v>
+        <v>5481</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>5477</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:11">
@@ -40965,34 +40985,34 @@
         <v>3938</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5478</v>
+        <v>5483</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5479</v>
+        <v>5484</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>5480</v>
+        <v>5485</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>5481</v>
+        <v>5486</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>5482</v>
+        <v>5487</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>5483</v>
+        <v>5488</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>5484</v>
+        <v>5489</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>5485</v>
+        <v>5490</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>5486</v>
+        <v>5491</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>5060</v>
+        <v>5064</v>
       </c>
     </row>
   </sheetData>
@@ -41018,21 +41038,21 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>5487</v>
+        <v>5492</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2891</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>4892</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>5488</v>
+        <v>5493</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5489</v>
+        <v>5494</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -41040,10 +41060,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5490</v>
+        <v>5495</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5491</v>
+        <v>5496</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -41051,10 +41071,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5492</v>
+        <v>5497</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5493</v>
+        <v>5498</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -41062,10 +41082,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5494</v>
+        <v>5499</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5495</v>
+        <v>5500</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -41073,10 +41093,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>5496</v>
+        <v>5501</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5497</v>
+        <v>5502</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -41084,10 +41104,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5498</v>
+        <v>5503</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5499</v>
+        <v>5504</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -41095,10 +41115,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>5500</v>
+        <v>5505</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5501</v>
+        <v>5506</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -41106,10 +41126,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>5502</v>
+        <v>5507</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5503</v>
+        <v>5508</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -41117,10 +41137,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>5504</v>
+        <v>5509</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5505</v>
+        <v>5510</v>
       </c>
       <c r="C10" s="5">
         <v>9</v>
@@ -41128,10 +41148,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>5506</v>
+        <v>5511</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5507</v>
+        <v>5512</v>
       </c>
       <c r="C11" s="5">
         <v>10</v>
@@ -41139,10 +41159,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>5508</v>
+        <v>5513</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5509</v>
+        <v>5514</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
@@ -41150,10 +41170,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>5510</v>
+        <v>5515</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5511</v>
+        <v>5516</v>
       </c>
       <c r="C13" s="5">
         <v>12</v>
@@ -41161,10 +41181,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>5512</v>
+        <v>5517</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5513</v>
+        <v>5518</v>
       </c>
       <c r="C14" s="5">
         <v>13</v>
@@ -41172,10 +41192,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>5514</v>
+        <v>5519</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5515</v>
+        <v>5520</v>
       </c>
       <c r="C15" s="5">
         <v>14</v>
@@ -41183,10 +41203,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>5516</v>
+        <v>5521</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5517</v>
+        <v>5522</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
@@ -41194,10 +41214,10 @@
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>5518</v>
+        <v>5523</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5519</v>
+        <v>5524</v>
       </c>
       <c r="C17" s="5">
         <v>16</v>
@@ -41205,10 +41225,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>5520</v>
+        <v>5525</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5521</v>
+        <v>5526</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -41216,10 +41236,10 @@
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>5522</v>
+        <v>5527</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5523</v>
+        <v>5528</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -41227,10 +41247,10 @@
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>5524</v>
+        <v>5529</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5525</v>
+        <v>5530</v>
       </c>
       <c r="C20" s="5">
         <v>19</v>
@@ -41238,10 +41258,10 @@
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>5526</v>
+        <v>5531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5527</v>
+        <v>5532</v>
       </c>
       <c r="C21" s="5">
         <v>20</v>
@@ -41249,10 +41269,10 @@
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>5528</v>
+        <v>5533</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5529</v>
+        <v>5534</v>
       </c>
       <c r="C22" s="5">
         <v>30</v>
@@ -41260,10 +41280,10 @@
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>5530</v>
+        <v>5535</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5531</v>
+        <v>5536</v>
       </c>
       <c r="C23" s="5">
         <v>40</v>
@@ -41271,10 +41291,10 @@
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>5532</v>
+        <v>5537</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5533</v>
+        <v>5538</v>
       </c>
       <c r="C24" s="5">
         <v>50</v>
@@ -41282,10 +41302,10 @@
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>5534</v>
+        <v>5539</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5535</v>
+        <v>5540</v>
       </c>
       <c r="C25" s="5">
         <v>60</v>
@@ -41293,10 +41313,10 @@
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>5536</v>
+        <v>5541</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5537</v>
+        <v>5542</v>
       </c>
       <c r="C26" s="5">
         <v>70</v>
@@ -41304,10 +41324,10 @@
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>5538</v>
+        <v>5543</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5539</v>
+        <v>5544</v>
       </c>
       <c r="C27" s="5">
         <v>80</v>
@@ -41315,10 +41335,10 @@
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>5540</v>
+        <v>5545</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5541</v>
+        <v>5546</v>
       </c>
       <c r="C28" s="5">
         <v>90</v>
@@ -41326,10 +41346,10 @@
     </row>
     <row r="29" customHeight="1" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>5542</v>
+        <v>5547</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5543</v>
+        <v>5548</v>
       </c>
       <c r="C29" s="5">
         <v>100</v>
@@ -41337,35 +41357,35 @@
     </row>
     <row r="30" customHeight="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>5544</v>
+        <v>5549</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5545</v>
+        <v>5550</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>5546</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>5547</v>
+        <v>5552</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5548</v>
+        <v>5553</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>5549</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>5550</v>
+        <v>5555</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5551</v>
+        <v>5556</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>5552</v>
+        <v>5557</v>
       </c>
     </row>
   </sheetData>
@@ -41395,142 +41415,142 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>5553</v>
+        <v>5558</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2891</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5554</v>
+        <v>5559</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>4892</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5555</v>
+        <v>5560</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5556</v>
+        <v>5561</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>5558</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5559</v>
+        <v>5564</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5560</v>
+        <v>5565</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>5561</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>5567</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5568</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5562</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5563</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5557</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>5564</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5565</v>
+        <v>5570</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5566</v>
+        <v>5571</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>5567</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5568</v>
+        <v>5573</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5569</v>
+        <v>5574</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>5570</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>5571</v>
+        <v>5576</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5572</v>
+        <v>5577</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>5573</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>5574</v>
+        <v>5579</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5575</v>
+        <v>5580</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>5576</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>5577</v>
+        <v>5582</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5566</v>
+        <v>5571</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>5578</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>5565</v>
+        <v>5570</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5566</v>
+        <v>5571</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>5579</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" customHeight="1" spans="1:4">
@@ -41541,128 +41561,128 @@
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>5580</v>
+        <v>5585</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5581</v>
+        <v>5586</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>5583</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>5584</v>
+        <v>5589</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5585</v>
+        <v>5590</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>5586</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>5584</v>
+        <v>5589</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5585</v>
+        <v>5590</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>5587</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>5588</v>
+        <v>5593</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5589</v>
+        <v>5594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>5590</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>5565</v>
+        <v>5570</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5566</v>
+        <v>5571</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>5591</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>5568</v>
+        <v>5573</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5569</v>
+        <v>5574</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>5592</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>5593</v>
+        <v>5598</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5594</v>
+        <v>5599</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>5595</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>5596</v>
+        <v>5601</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5597</v>
+        <v>5602</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>5598</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>5565</v>
+        <v>5570</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5566</v>
+        <v>5571</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>5599</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" customHeight="1" spans="1:4">
@@ -41673,114 +41693,114 @@
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>5600</v>
+        <v>5605</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5601</v>
+        <v>5606</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5602</v>
+        <v>5607</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>5603</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>5604</v>
+        <v>5609</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5605</v>
+        <v>5610</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5602</v>
+        <v>5607</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>5606</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="1" t="s">
+        <v>5612</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5613</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>5607</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5608</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5602</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>5609</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>5574</v>
+        <v>5579</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5575</v>
+        <v>5580</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5602</v>
+        <v>5607</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>5610</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="1" t="s">
+        <v>5612</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5613</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>5607</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5608</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5602</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>5611</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>5593</v>
+        <v>5598</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5612</v>
+        <v>5617</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5602</v>
+        <v>5607</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>5613</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>5596</v>
+        <v>5601</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5597</v>
+        <v>5602</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5602</v>
+        <v>5607</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>5614</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>5615</v>
+        <v>5620</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5616</v>
+        <v>5621</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5602</v>
+        <v>5607</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>5617</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="30" s="8" customFormat="1" customHeight="1" spans="1:4">
@@ -41791,142 +41811,142 @@
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>5580</v>
+        <v>5585</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5581</v>
+        <v>5586</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>5619</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>5584</v>
+        <v>5589</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5585</v>
+        <v>5590</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>5620</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>5621</v>
+        <v>5626</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5622</v>
+        <v>5627</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>5623</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>5621</v>
+        <v>5626</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5622</v>
+        <v>5627</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>5624</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>5621</v>
+        <v>5626</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5622</v>
+        <v>5627</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>5625</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>5621</v>
+        <v>5626</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5622</v>
+        <v>5627</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>5626</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>5593</v>
+        <v>5598</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5612</v>
+        <v>5617</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>5627</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>5596</v>
+        <v>5601</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5597</v>
+        <v>5602</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>5628</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>5621</v>
+        <v>5626</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5622</v>
+        <v>5627</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>5629</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>5621</v>
+        <v>5626</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5622</v>
+        <v>5627</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>5630</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="41" s="8" customFormat="1" customHeight="1" spans="1:4">
@@ -41937,30 +41957,30 @@
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>5631</v>
+        <v>5636</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5632</v>
+        <v>5637</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>5634</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>5635</v>
+        <v>5640</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5636</v>
+        <v>5641</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>5637</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:4">
@@ -41971,24 +41991,24 @@
         <v>3373</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>5638</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>5574</v>
+        <v>5579</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5575</v>
+        <v>5580</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>5639</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
@@ -41999,52 +42019,52 @@
         <v>3373</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>5640</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>5641</v>
+        <v>5646</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5642</v>
+        <v>5647</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>5643</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>5644</v>
+        <v>5649</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5645</v>
+        <v>5650</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>5646</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>5574</v>
+        <v>5579</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5575</v>
+        <v>5580</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>5647</v>
+        <v>5652</v>
       </c>
     </row>
   </sheetData>
@@ -42070,32 +42090,32 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>4018</v>
+        <v>4010</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2891</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>4892</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="28" t="s">
-        <v>5648</v>
+      <c r="A2" s="27" t="s">
+        <v>5653</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5649</v>
+        <v>5654</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5650</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5488</v>
+        <v>5493</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5651</v>
+        <v>5656</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
